--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8732B7-6165-4CFC-B41C-D0EC7BEBD5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB323B-8885-4E53-AFA5-66A73B0878C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="12" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
   <si>
     <t>Town</t>
   </si>
@@ -373,9 +373,6 @@
     <t>Sandton</t>
   </si>
   <si>
-    <t>Test for 1 mainlife ,1 spouse with 2 children,1  beneficiary, 1 parent,</t>
-  </si>
-  <si>
     <t>09876566</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>9505259824083</t>
-  </si>
-  <si>
     <t>9309248678084</t>
   </si>
   <si>
@@ -449,13 +443,55 @@
   </si>
   <si>
     <t>7500</t>
+  </si>
+  <si>
+    <t>0809248462081</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test for 1 mainlife ,1 spouse </t>
+  </si>
+  <si>
+    <t>0679587876</t>
+  </si>
+  <si>
+    <t>Refilwe</t>
+  </si>
+  <si>
+    <t>Makeba</t>
+  </si>
+  <si>
+    <t>8304103695084</t>
+  </si>
+  <si>
+    <t>Test for 1 mainlife with 2 children,1  beneficiary, 1 parent, 1 extended</t>
+  </si>
+  <si>
+    <t>0830678899</t>
+  </si>
+  <si>
+    <t>0830678900</t>
+  </si>
+  <si>
+    <t>example@gmail.com</t>
+  </si>
+  <si>
+    <t>09876567</t>
+  </si>
+  <si>
+    <t>29 Beacon Avenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +586,28 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -686,7 +744,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -697,7 +755,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -720,37 +777,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,15 +789,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,15 +838,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{501A4514-B1BB-400C-AFA1-8FE92D854DF2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -794,12 +876,22 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -812,8 +904,40 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -833,8 +957,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -847,43 +972,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -903,8 +991,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -917,8 +1006,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -938,8 +1025,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -952,8 +1040,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -973,8 +1059,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -987,8 +1074,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1008,8 +1093,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1022,8 +1108,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1043,8 +1127,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1057,8 +1142,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1083,6 +1166,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1108,6 +1194,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
@@ -1145,8 +1232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="B1:J2" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B1:J2" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="B1:J3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B1:J3" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
@@ -1461,13 +1548,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -1486,73 +1573,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="34" t="s">
+      <c r="V1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1570,16 +1657,16 @@
         <v>95</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>61</v>
@@ -1590,7 +1677,7 @@
       <c r="K2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="22" t="s">
         <v>101</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -1618,18 +1705,18 @@
         <v>26082</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>129</v>
+      <c r="W2" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
@@ -1641,16 +1728,16 @@
         <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>61</v>
@@ -1661,7 +1748,7 @@
       <c r="K3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="22" t="s">
         <v>101</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -1689,13 +1776,13 @@
         <v>26082</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>128</v>
+      <c r="W3" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1721,86 +1808,116 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="2">
-        <v>830678899</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>62429363625</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="5">
+        <v>62429363625</v>
+      </c>
+      <c r="H3" s="5">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{1E0F4F43-21E1-4BE8-A464-AD35447E0237}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336DFDB-3FD2-47A9-AF34-A47945A6E5B9}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -1817,22 +1934,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1841,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
@@ -1853,6 +1970,26 @@
         <v>15</v>
       </c>
       <c r="F2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
         <v>15</v>
       </c>
     </row>
@@ -1863,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1877,25 +2014,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="19" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1919,58 +2056,96 @@
         <v>2191</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2192</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F1F8E-1B22-4BDD-894D-8FFA9CEDA6FB}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>1000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1996,56 +2171,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="36" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2071,7 +2246,7 @@
       <c r="G3" s="3">
         <v>5000</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -2103,7 +2278,7 @@
       <c r="G4" s="3">
         <v>7500</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>14.2857</v>
       </c>
       <c r="I4" s="3">
@@ -2135,7 +2310,7 @@
       <c r="G5" s="3">
         <v>10000</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>28.571400000000001</v>
       </c>
       <c r="I5" s="3">
@@ -2167,7 +2342,7 @@
       <c r="G6" s="3">
         <v>15000</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>42.857100000000003</v>
       </c>
       <c r="I6" s="3">
@@ -2199,7 +2374,7 @@
       <c r="G7" s="3">
         <v>20000</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>57.142899999999997</v>
       </c>
       <c r="I7" s="3">
@@ -2227,7 +2402,7 @@
       <c r="G8" s="3">
         <v>30000</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>71.428600000000003</v>
       </c>
       <c r="I8" s="3">
@@ -2255,7 +2430,7 @@
       <c r="G9" s="3">
         <v>40000</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>85.714299999999994</v>
       </c>
       <c r="I9" s="3"/>
@@ -2279,7 +2454,7 @@
       <c r="G10" s="3">
         <v>50000</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>100</v>
       </c>
       <c r="I10" s="3"/>
@@ -2308,7 +2483,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2326,10 +2501,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2344,40 +2519,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2416,6 +2591,44 @@
         <v>5000</v>
       </c>
       <c r="L2" s="4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>800</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1200</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="4">
         <v>6000</v>
       </c>
     </row>
@@ -2427,95 +2640,123 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="35" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="27">
         <v>1000</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="34"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2532,7 +2773,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2545,31 +2786,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>86</v>
@@ -2577,16 +2818,16 @@
       <c r="C2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -2612,7 +2853,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2624,28 +2865,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -2653,17 +2894,18 @@
       <c r="C2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>15000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2682,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2699,22 +2941,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2723,19 +2965,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="5">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +3010,7 @@
           <x14:formula1>
             <xm:f>Cover_Coordinates!$C$3:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F2:F3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2761,7 +3023,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2775,28 +3037,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>110</v>
+      <c r="F1" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2807,11 +3069,11 @@
       <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>111</v>
+      <c r="F2" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2828,7 +3090,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2841,62 +3103,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>10000</v>
       </c>
     </row>
